--- a/вариант 2024 2025/Прогноз ЕГЭ2025/22_22233.xlsx
+++ b/вариант 2024 2025/Прогноз ЕГЭ2025/22_22233.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\jakov\вариант 2024 2025\Прогноз ЕГЭ2025\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4C3286-201F-42A6-AFA0-C0B8EA9DFB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A54496CE-CEFA-4401-8E2D-3685D8FC7181}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -202,7 +196,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -396,25 +390,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617506DE-3AD7-4FE4-9597-A285447EB8E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15:Q15"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" customWidth="1"/>
     <col min="6" max="47" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
